--- a/projects/psp/refined_data/kid_count_chart.xlsx
+++ b/projects/psp/refined_data/kid_count_chart.xlsx
@@ -259,7 +259,7 @@
                   <c:v>0.0958123509143917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.128168832840046</c:v>
+                  <c:v>0.133001207729469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,7 +335,7 @@
                   <c:v>0.491783726477604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.488611504310899</c:v>
+                  <c:v>0.482487922705314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,7 +411,7 @@
                   <c:v>0.355685131195335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.329815982499035</c:v>
+                  <c:v>0.331219806763285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,7 +487,7 @@
                   <c:v>0.0508878876225815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0482563376656801</c:v>
+                  <c:v>0.0471014492753623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +563,7 @@
                   <c:v>0.00583090379008746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00514734268433921</c:v>
+                  <c:v>0.00618961352657005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,12 +579,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2039924824"/>
-        <c:axId val="2107864504"/>
+        <c:axId val="-2086896088"/>
+        <c:axId val="-2086994728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2039924824"/>
+        <c:axId val="-2086896088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107864504"/>
+        <c:crossAx val="-2086994728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -612,7 +612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107864504"/>
+        <c:axId val="-2086994728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039924824"/>
+        <c:crossAx val="-2086896088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F18"/>
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1196,23 +1196,23 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>996</v>
+        <v>881</v>
       </c>
       <c r="C8">
-        <v>3797</v>
+        <v>3196</v>
       </c>
       <c r="D8">
-        <v>2563</v>
+        <v>2194</v>
       </c>
       <c r="E8">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7771</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1388,23 +1388,23 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="2"/>
-        <v>0.12816883284004632</v>
+        <v>0.13300120772946861</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>0.4886115043108995</v>
+        <v>0.48248792270531399</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>0.32981598249903488</v>
+        <v>0.33121980676328505</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>4.8256337665680091E-2</v>
+        <v>4.710144927536232E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>5.1473426843392095E-3</v>
+        <v>6.189613526570048E-3</v>
       </c>
     </row>
   </sheetData>

--- a/projects/psp/refined_data/kid_count_chart.xlsx
+++ b/projects/psp/refined_data/kid_count_chart.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajbentley/GA-DSI/projects/psp/refined_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="440" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kid_count_pivot.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -132,6 +140,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,22 +227,22 @@
                   <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2010.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010.0</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010.0</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,22 +303,22 @@
                   <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2010.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010.0</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010.0</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,22 +379,22 @@
                   <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2010.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010.0</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010.0</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,22 +455,22 @@
                   <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2010.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010.0</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010.0</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,22 +531,22 @@
                   <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2010.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010.0</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010.0</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,12 +592,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2086896088"/>
-        <c:axId val="-2086994728"/>
+        <c:axId val="-1864481712"/>
+        <c:axId val="-1864479392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2086896088"/>
+        <c:axId val="-1864481712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,15 +617,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086994728"/>
+        <c:crossAx val="-1864479392"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086994728"/>
+        <c:axId val="-1864479392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086896088"/>
+        <c:crossAx val="-1864481712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -672,13 +685,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1024,13 +1037,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1084,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1180,7 @@
         <v>7241</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1204,7 @@
         <v>7546</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1228,7 @@
         <v>6624</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -1257,9 +1270,9 @@
         <v>7.5347303979279492E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ref="B13:F18" si="2">+B3/$G3</f>
@@ -1282,9 +1295,9 @@
         <v>6.5742714996446343E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="2"/>
@@ -1307,9 +1320,9 @@
         <v>6.3401489935013475E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="2"/>
@@ -1332,9 +1345,9 @@
         <v>6.7587422862180431E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="2"/>
@@ -1357,9 +1370,9 @@
         <v>6.3527137135754733E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="2"/>
@@ -1382,9 +1395,9 @@
         <v>5.8309037900874635E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="2"/>
@@ -1411,10 +1424,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>